--- a/RIIM_Packet_Calculator.xlsx
+++ b/RIIM_Packet_Calculator.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiocraftsas-my.sharepoint.com/personal/t_s_knutsen_radiocrafts_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B349FD4B-88A0-401A-B99F-574CDE9CE1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6736E4-1952-4B58-8360-9787D7D5AA4A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{B349FD4B-88A0-401A-B99F-574CDE9CE1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31FFA8EF-B364-4A9D-B325-FC211274BE3E}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="1UuVo2kTSLvlTWFrKquGsPV8tsUfRlakke0xmoVcbTtoHw5sQrlz3KZPklHfA/IV1AOdsczWjK/YU7QTVEBxMA==" workbookSaltValue="apzW3jZWI3TELanirmfUQw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2A1BE1C-BE6A-443C-8744-E08A734F08D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2A1BE1C-BE6A-443C-8744-E08A734F08D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -115,15 +115,9 @@
     <t>CoAP DTLS</t>
   </si>
   <si>
-    <t xml:space="preserve">This sheet can be used to calculate the number of packets sendt over the air, from the number of bytes in the payload. </t>
-  </si>
-  <si>
     <t>Link direction</t>
   </si>
   <si>
-    <t>See the usermanual for limits on number of bytes to be sent.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multicast packets will have a number of hop of 1 independent of network size. </t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>First packet</t>
   </si>
   <si>
-    <t xml:space="preserve">When using RIIM, there can be times where it's neccesarry to determine the number of packets sendt, in order to determine parameters such as power useage, propagation delay and congestion factor. Sensors with varying payload length makes calculations more complicated. This spreadsheet are meant to help with the calculation of how many packets from a given number of bytes to be sent from a node. </t>
-  </si>
-  <si>
     <t>Pkts on air</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>Number of bytes pr package(MAC layer)</t>
   </si>
   <si>
-    <t>In Physical layer include 3 bytes preamble, 3 bytes syncronization word and 1 byte lenght.</t>
-  </si>
-  <si>
     <t>Overhead COAP TLS(first packet, no fragmentation)</t>
   </si>
   <si>
@@ -224,6 +212,18 @@
   </si>
   <si>
     <t>Red section is not in use!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using RIIM, there can be times where it's necessary to determine the number of packets sent, in order to determine parameters such as power usage, propagation delay and congestion factor. Sensors with varying payload length makes calculations more complicated. This spreadsheet are meant to help with the calculation of how many packets from a given number of bytes to be sent from a node. </t>
+  </si>
+  <si>
+    <t>See the user manual for limits on number of bytes to be sent.</t>
+  </si>
+  <si>
+    <t>In Physical layer include 3 bytes preamble, 3 bytes synchronization word and 1 byte length.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet can be used to calculate the number of packets sent over the air, from the number of bytes in the payload. </t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1844675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>904875</xdr:rowOff>
+      <xdr:rowOff>901700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -587,9 +587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1113143</xdr:rowOff>
+      <xdr:rowOff>1116318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -637,9 +637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1133614</xdr:rowOff>
+      <xdr:rowOff>1130439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -682,9 +682,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -722,7 +722,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -828,7 +828,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -970,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -981,23 +981,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="5" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" customWidth="1"/>
-    <col min="11" max="11" width="4.26953125" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1011,7 +1011,7 @@
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
@@ -1027,9 +1027,9 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1043,7 +1043,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1057,18 +1057,18 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1076,15 +1076,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1092,85 +1092,85 @@
         <v>3</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>CONCATENATE(Calculations!E19," Packets")</f>
-        <v xml:space="preserve">  Packets</v>
+        <v>3 Packets</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="E12" s="12">
         <f>Calculations!E12</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F12" s="12">
         <f>Calculations!E13</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G12" s="12">
         <f>Calculations!E14</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="14">
         <f>Calculations!E15</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F13" s="14">
         <f>Calculations!E16</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G13" s="14">
         <f>Calculations!E17</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="H14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="10">
         <f>Calculations!D10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1213,30 +1213,30 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="M1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3">
         <f>Input!B7</f>
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>3</v>
@@ -1251,14 +1251,14 @@
         <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="3:29" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -1277,10 +1277,10 @@
         <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="3:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L4">
         <f>127-77</f>
@@ -1307,14 +1307,14 @@
         <v>94</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <f>127-68</f>
@@ -1331,7 +1331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1341,29 +1341,29 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
         <v>16</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="3:29" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
       <c r="M9" s="16" t="s">
@@ -1385,7 +1385,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16">
         <f>D2</f>
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -1399,17 +1399,17 @@
         <v>24</v>
       </c>
       <c r="Y9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="3:29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="6">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS")),"too long for CoAP",IF(D2&lt;1024,P31,"Too long packet"))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -1456,10 +1456,10 @@
       </c>
       <c r="AA10">
         <f>IF(S18&gt;0,Z10+V16,Z10)</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
       <c r="E11" s="15"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N11" s="16">
         <f>QUOTIENT(D2,P11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="Q11" s="16">
         <f>N11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16">
         <f>P11*Q11</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="T11" s="16">
         <f>IF(AND(S12&lt;8,S11&gt;0),(P11),(P11*Q11))</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="U11" s="16">
         <f>IF(T15=0,0,IF(AND(S12&lt;8,S11&gt;0),(P11),(P11*Q11)))</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="V11">
         <f>127-Q3</f>
@@ -1513,11 +1513,11 @@
       </c>
       <c r="Z11">
         <f>IF(AND(T11&gt;0,U11&gt;0),Y11+T11,0)</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AA11">
         <f>IF(Z11&gt;128,125,Z11)</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AB11">
         <f>(Z11-AA11)*T15</f>
@@ -1528,12 +1528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,R24," "))</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G12" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,T10," "))</f>
@@ -1550,11 +1550,11 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16">
         <f>S9-S10-S11</f>
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="T12" s="16">
         <f>IF(S12&gt;7,S12,IF(AND(S12&lt;0,T11&gt;0),S18,0))</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="U12" s="16"/>
       <c r="Y12">
@@ -1563,19 +1563,19 @@
       </c>
       <c r="Z12">
         <f>IF(T12&gt;0,Y12+T12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
       <c r="E13" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,R25," "))</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G13" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,U11," "))</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -1590,16 +1590,16 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
     </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,R26," "))</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G14" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,T12," "))</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
       <c r="E15" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,S24," "))</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,AA10," "))</f>
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
@@ -1634,25 +1634,25 @@
       </c>
       <c r="Q15" s="16">
         <f>SUM(Q10:Q13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16">
         <f>IF(S12&gt;0,Q11,IF(Q15=0,0,Q11+Q13-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U15" s="16"/>
     </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="E16" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,S25," "))</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G16" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,AA11," "))</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -1665,17 +1665,17 @@
       <c r="U16" s="16"/>
       <c r="V16">
         <f>IF(T11&gt;-S12,T11+S12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E17" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,S26," "))</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G17" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(D2&lt;1024,Z12," "))</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -1687,7 +1687,7 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E18" s="15"/>
       <c r="G18" s="15"/>
       <c r="M18" s="16"/>
@@ -1698,25 +1698,25 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16">
         <f>S9-S10-(O19*T11)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="E19" s="15" t="str">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(AND(D2&lt;1024,D20&gt;2),P25," "))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G19" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="G19" s="15">
         <f>IF(AND(Input!B7&gt;128,OR(Input!B9="CoAP",Input!B9="CoAP DTLS"))," ",IF(AND(D2&lt;1024,D20&gt;2),T15," "))</f>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16">
         <f>IF(S12&lt;0,Q11-1,Q11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
@@ -1725,13 +1725,13 @@
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="6">
         <f>P31</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1742,21 +1742,21 @@
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -1766,40 +1766,40 @@
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M23" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="17">
         <f>D2</f>
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M24" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N24" s="17">
         <f>IF(Q23&gt;(P10),P10-6,P10)</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O24" s="17">
         <f>IF((Q23&lt;=P10),127-P10,125-N24)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P24" s="17">
         <f>IF(Q23&gt;0,1,0)</f>
@@ -1807,25 +1807,25 @@
       </c>
       <c r="Q24" s="17">
         <f>N24*P24</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R24" s="17">
         <f>IF(AND(R25=0,R31&lt;5),Q24+R31,Q24)</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="S24" s="17">
         <f>R24+O24</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T24" s="17"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M25" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N25" s="17">
         <f>IF((Q23-Q24)&gt;P11+2,P11,P11+2)</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O25" s="17">
         <f>IF((Q24&lt;P11),125-P11,127-N25)</f>
@@ -1833,25 +1833,25 @@
       </c>
       <c r="P25" s="17">
         <f>N32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="17">
         <f>P25*N25</f>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="R25" s="17">
         <f>IF(N32&gt;0,Q25/P25,0)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="S25" s="17">
         <f>IF(N32&gt;0,R25+O25,0)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="T25" s="17"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M26" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17">
@@ -1865,28 +1865,28 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17">
         <f>IF(AND(R31&gt;0,R31&lt;7),7,IF(R31&lt;1,0,R31))</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="S26" s="17">
         <f>IF(R26&gt;0,R26+O26,0)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17">
         <f>IF(R31&gt;1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -1896,7 +1896,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
@@ -1906,7 +1906,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
@@ -1916,38 +1916,38 @@
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M31" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N31" s="17">
         <f>QUOTIENT(D2,Q23)</f>
         <v>1</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P31" s="17">
         <f>SUM(P24:P30)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R31" s="17">
         <f>Q23-Q24-Q25</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="M32" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N32" s="17">
         <f>QUOTIENT(Q23-Q24,N25+1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -1956,7 +1956,7 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
